--- a/Casos de prueba Hipoteca Inversa.xlsx
+++ b/Casos de prueba Hipoteca Inversa.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Proyecto Hipoteca Inversa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b12s307.B12_307_12\Desktop\Proyecto-Hipoteca-Inversa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89600217-C719-4D80-8208-53F25FABEBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Casos Tarjeta Credito" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,12 +148,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -205,31 +204,31 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,8 +760,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="9">
-        <f>(B7*G7)/((86-C7)*12)</f>
-        <v>32916.666666666664</v>
+        <v>32916.67</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1127,7 +1125,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="9">
-        <v>80087.72</v>
+        <v>72460.320000000007</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1156,7 +1154,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="9">
-        <v>857142.86</v>
+        <v>666666.67000000004</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
